--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\会社\Softtech\社内インフラ\社内管理システム\環境構築\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\環境構築\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1F1D3-A51B-49FD-AB06-DDD6A714B38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF2F5B7-AD62-4836-AFEA-70D2EA195BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="19035" windowHeight="10530" activeTab="2" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
@@ -293,12 +293,41 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Eclipse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ｅｃｌｉｐｓｅの設定画面からgeneral→security→secure storageへ。</t>
+  </si>
+  <si>
+    <t>こちらのcontentsタブからgitを選択。</t>
+  </si>
+  <si>
+    <t>すると下の方にIDとパスワードの書かれているファイルの在処が表示されていると思います。</t>
+  </si>
+  <si>
+    <t>※Pushでは時、権限ない場合の対応。</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,6 +369,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF383838"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -366,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +420,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2222,87 +2270,87 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3">
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2320,70 +2368,95 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
-  <dimension ref="A2:B165"/>
+  <dimension ref="A2:C170"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2">
       <c r="B37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2">
       <c r="B88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:2">
       <c r="B141" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="B166" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="B167" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="C168" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="C169" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="C170" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2398,69 +2471,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6CBAD-4C55-439D-AC3F-FA2481937E50}">
   <dimension ref="A2:M354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="O353" sqref="O353"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="I356" sqref="I356"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="9" max="9" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="91" spans="10:10">
       <c r="J91" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.4">
+    <row r="100" spans="10:10">
       <c r="J100" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1">
       <c r="A195" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1">
       <c r="A223" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2">
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:1">
       <c r="A291" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:1">
       <c r="A319" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="13:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="13:13">
       <c r="M354" s="3" t="s">
         <v>37</v>
       </c>

--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\環境構築\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF2F5B7-AD62-4836-AFEA-70D2EA195BA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788AE33-1033-45C4-BF5F-77032F7F76FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
@@ -320,6 +320,10 @@
     <rPh sb="16" eb="18">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>!</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2368,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
-  <dimension ref="A2:C170"/>
+  <dimension ref="A2:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+      <selection activeCell="B172" sqref="B172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2457,6 +2461,11 @@
     <row r="170" spans="1:3">
       <c r="C170" s="5" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="B172" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2544,6 +2553,7 @@
     <hyperlink ref="J91" r:id="rId1" xr:uid="{8F4F5327-367D-4390-858A-5A30C37E5F90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\環境構築\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\会社\Softtech\社内インフラ\社内管理システム\環境構築\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4788AE33-1033-45C4-BF5F-77032F7F76FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1F1D3-A51B-49FD-AB06-DDD6A714B38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="60" yWindow="0" windowWidth="19035" windowHeight="10530" activeTab="2" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
@@ -293,45 +293,12 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>Eclipse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ｅｃｌｉｐｓｅの設定画面からgeneral→security→secure storageへ。</t>
-  </si>
-  <si>
-    <t>こちらのcontentsタブからgitを選択。</t>
-  </si>
-  <si>
-    <t>すると下の方にIDとパスワードの書かれているファイルの在処が表示されていると思います。</t>
-  </si>
-  <si>
-    <t>※Pushでは時、権限ない場合の対応。</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,19 +340,6 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF383838"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -412,7 +366,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,12 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2274,87 +2222,87 @@
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -2372,100 +2320,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
-  <dimension ref="A2:C172"/>
+  <dimension ref="A2:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="B172" sqref="B172"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B88" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
+    <row r="141" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B141" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="B166" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="B167" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="C168" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="C169" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="C170" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="B172" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2480,69 +2398,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6CBAD-4C55-439D-AC3F-FA2481937E50}">
   <dimension ref="A2:M354"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="I356" sqref="I356"/>
+    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="O353" sqref="O353"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="9" max="9" width="6.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="10:10">
+    <row r="91" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J91" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="10:10">
+    <row r="100" spans="10:10" x14ac:dyDescent="0.4">
       <c r="J100" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="223" spans="1:1">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:1">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="319" spans="1:1">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="354" spans="13:13">
+    <row r="354" spans="13:13" x14ac:dyDescent="0.4">
       <c r="M354" s="3" t="s">
         <v>37</v>
       </c>
@@ -2553,7 +2471,6 @@
     <hyperlink ref="J91" r:id="rId1" xr:uid="{8F4F5327-367D-4390-858A-5A30C37E5F90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\会社\Softtech\社内インフラ\社内管理システム\環境構築\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4F1F1D3-A51B-49FD-AB06-DDD6A714B38B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7BC54322-3D47-4EE0-87DE-03B30EB1FF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="0" windowWidth="19035" windowHeight="10530" activeTab="2" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19065" windowHeight="11820" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
     <sheet name="開発環境構築" sheetId="1" r:id="rId2"/>
     <sheet name="DEBUG環境作成" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A61:M66"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
@@ -290,6 +286,16 @@
     <t>以上。</t>
     <rPh sb="0" eb="2">
       <t>イジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Commit 不可対応</t>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タイオウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2320,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
-  <dimension ref="A2:B165"/>
+  <dimension ref="A2:B166"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="F165" sqref="F165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2381,9 +2387,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B166" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2398,8 +2409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6CBAD-4C55-439D-AC3F-FA2481937E50}">
   <dimension ref="A2:M354"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A343" workbookViewId="0">
-      <selection activeCell="O353" sqref="O353"/>
+    <sheetView topLeftCell="A349" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{7BC54322-3D47-4EE0-87DE-03B30EB1FF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A75A3C6E-015F-4850-AFC7-80A519AEC62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19065" windowHeight="11820" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="19095" windowHeight="11820" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
@@ -18,20 +18,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
@@ -297,6 +289,10 @@
     <rPh sb="10" eb="12">
       <t>タイオウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2326,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
-  <dimension ref="A2:B166"/>
+  <dimension ref="A2:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="F165" sqref="F165"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2395,6 +2391,11 @@
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B166" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B167" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A75A3C6E-015F-4850-AFC7-80A519AEC62A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\環境構築\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3B374-5202-4A56-A999-E5B5CCD3E8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="19095" windowHeight="11820" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="120" yWindow="2670" windowWidth="12510" windowHeight="10425" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="DEBUG環境作成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A61:M66"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -282,17 +286,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve"> Commit 不可対応</t>
-    <rPh sb="8" eb="10">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
+    <t>※　Push　不能対応。（権限）</t>
+    <rPh sb="7" eb="9">
+      <t>フノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
       <t>タイオウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>?</t>
+    <rPh sb="13" eb="15">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　Eclipse ⇒　設定　⇒　一般　⇒　セキュリティー　⇒　セキュリティーストレージ　⇒　内容　⇒　Git</t>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2324,7 +2340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
   <dimension ref="A2:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
       <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>

--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\環境構築\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A3B374-5202-4A56-A999-E5B5CCD3E8E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4284A2-099D-4157-A4CB-21672B7C04E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="2670" windowWidth="12510" windowHeight="10425" activeTab="1" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>https://mergedoc.osdn.jp/</t>
   </si>
@@ -308,6 +308,21 @@
     </rPh>
     <rPh sb="46" eb="48">
       <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>softtech</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -585,6 +600,402 @@
         <a:xfrm>
           <a:off x="438150" y="2143125"/>
           <a:ext cx="7638095" cy="6038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>170744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCD0E6F9-E3BB-4946-BB55-BC05FD1F8239}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="25479375"/>
+          <a:ext cx="7485714" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>170744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B615830-C6AD-4498-AC30-BE6FD5DDD59C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="31432500"/>
+          <a:ext cx="7485714" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>170744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E2018E4-88BB-4B22-9D27-3C575617C289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="37385625"/>
+          <a:ext cx="7485714" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>170744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CDD2FE2-A494-407D-9A1D-F2EAC6FB6E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="43338750"/>
+          <a:ext cx="7485714" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>627714</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>170744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA82DB5B-E7AD-426A-B479-DE515006B5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="49291875"/>
+          <a:ext cx="7485714" cy="5647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>218448</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>8929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E434166D-68FA-479C-B0B7-C2D10B693B1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1123950" y="55483125"/>
+          <a:ext cx="5019048" cy="4771429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408409</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>113690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDF3524-0F45-4F39-845F-E974EDC22C46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="60483750"/>
+          <a:ext cx="9323809" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>408409</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>113690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E65561D5-3FE4-4185-8FEC-5AA63F49C543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="65722500"/>
+          <a:ext cx="9323809" cy="4876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>297</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>684857</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>218542</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85E36B9B-A170-44D9-8DEF-1CFD7B3FFC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="438150" y="70723125"/>
+          <a:ext cx="7542857" cy="4266667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2234,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFD327B-EA93-4098-93E5-00E7127EFD18}">
-  <dimension ref="A2:C20"/>
+  <dimension ref="A2:M233"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
+      <selection activeCell="N302" sqref="N302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2323,6 +2734,19 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="B20" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="13:13" x14ac:dyDescent="0.4">
+      <c r="M164" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>41</v>
+      </c>
+      <c r="B233" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2340,7 +2764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
   <dimension ref="A2:B167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>

--- a/DOC/環境構築/開発環境構築.xlsx
+++ b/DOC/環境構築/開発環境構築.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gitwork\office\DOC\環境構築\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4284A2-099D-4157-A4CB-21672B7C04E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{78289121-12D6-49B9-87EC-7B79C8CE1D90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20760" windowHeight="11820" activeTab="2" xr2:uid="{5EBA1376-9CFD-46F8-93FE-EE52FC0A3149}"/>
   </bookViews>
   <sheets>
     <sheet name="DB構築" sheetId="2" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="DEBUG環境作成" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A349:Q361"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2343,6 +2339,72 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF436DCD-2FCE-4ECF-87B0-84630890D42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="27412950"/>
+          <a:ext cx="1438275" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -36721"/>
+            <a:gd name="adj2" fmla="val -113816"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>全部選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2647,8 +2709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFD327B-EA93-4098-93E5-00E7127EFD18}">
   <dimension ref="A2:M233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A289" workbookViewId="0">
-      <selection activeCell="N302" sqref="N302"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="O299" sqref="O299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2764,7 +2826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53058BDE-ADE0-4E30-93F3-1BDF3E0DDBDE}">
   <dimension ref="A2:B167"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="B168" sqref="B168"/>
     </sheetView>
   </sheetViews>
@@ -2850,8 +2912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73B6CBAD-4C55-439D-AC3F-FA2481937E50}">
   <dimension ref="A2:M354"/>
   <sheetViews>
-    <sheetView topLeftCell="A349" workbookViewId="0">
-      <selection activeCell="A346" sqref="A346"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="O112" sqref="O112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
